--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D135B59-2189-43DB-89AC-62595D61C6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE661EF-C929-40F0-BD1C-21E9C3402F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -101,9 +101,6 @@
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>ETH</t>
-  </si>
-  <si>
     <t>Minimum eLC  penetration for process heat</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>UC_MANHEAT_MinProd</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
   </si>
 </sst>
 </file>
@@ -621,7 +621,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>14</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
@@ -730,15 +730,18 @@
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -755,8 +758,14 @@
       <c r="L7" s="8">
         <v>-0.5</v>
       </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE661EF-C929-40F0-BD1C-21E9C3402F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C94FDE9-EED7-4487-B05A-9D5FEFC14E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>AllRegions</t>
+  </si>
+  <si>
+    <t>UC_COMPRD</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -205,6 +208,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,7 +625,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,7 +715,10 @@
       <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="I6">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="9">
         <v>2030</v>
       </c>
       <c r="J6" t="s">
@@ -746,7 +753,10 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="I7">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="9">
         <v>2050</v>
       </c>
       <c r="J7" t="s">

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C94FDE9-EED7-4487-B05A-9D5FEFC14E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558646A1-FB43-40CF-8613-49AAE740F835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -207,8 +207,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,7 +624,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +717,7 @@
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6">
         <v>2030</v>
       </c>
       <c r="J6" t="s">
@@ -756,7 +755,7 @@
       <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558646A1-FB43-40CF-8613-49AAE740F835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46655F-365C-41FD-9909-99BB011B2987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -207,7 +207,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +624,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA46655F-365C-41FD-9909-99BB011B2987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228F84B1-88C3-4C8A-8F86-AE257AF7314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -207,7 +207,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +623,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +725,7 @@
       <c r="K6">
         <v>1</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6">
         <v>-0.2</v>
       </c>
       <c r="M6">
@@ -764,17 +763,8 @@
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7">
         <v>-0.5</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>15</v>
-      </c>
-      <c r="O7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228F84B1-88C3-4C8A-8F86-AE257AF7314A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C3CD1-653F-488E-85D1-034CA3A993A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>DMD</t>
-  </si>
-  <si>
-    <t>DRSH</t>
   </si>
   <si>
     <t>LO</t>
@@ -623,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>14</v>
@@ -702,25 +699,25 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I6">
         <v>2030</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -735,36 +732,42 @@
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
         <v>-0.5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6C3CD1-653F-488E-85D1-034CA3A993A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D020A7-E2C8-4097-8A31-D31AB1BF93D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Minimum eLC  penetration for process heat</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
     <t>UC_MANHEAT_MinProd</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>UC_COMPRD</t>
+  </si>
+  <si>
+    <t>ELCHEAT</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7" t="s">
         <v>14</v>
@@ -699,19 +699,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6">
         <v>2030</v>
@@ -737,19 +737,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7">
         <v>2050</v>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D020A7-E2C8-4097-8A31-D31AB1BF93D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFA739-5B19-4834-A4EE-C08D15CDB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFA739-5B19-4834-A4EE-C08D15CDB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B245C-0036-4274-871B-7D97CF5A758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>UC_COMPRD</t>
   </si>
   <si>
-    <t>ELCHEAT</t>
+    <t>ELC</t>
   </si>
 </sst>
 </file>
@@ -620,12 +620,14 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48B245C-0036-4274-871B-7D97CF5A758B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CCE55-EA8D-4DF4-B01A-44EE35A4C836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
     <sheet name="MANHEAT_LO" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CCE55-EA8D-4DF4-B01A-44EE35A4C836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78E14E-E296-492F-B4B3-AE1D1CE9CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -628,6 +628,7 @@
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A78E14E-E296-492F-B4B3-AE1D1CE9CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A0923-4D34-4F6F-B794-277FDAA80C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>UC_COMPRD</t>
   </si>
   <si>
-    <t>ELC</t>
+    <t>MANOILIMP</t>
   </si>
 </sst>
 </file>
@@ -620,14 +620,14 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -710,7 +710,7 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
@@ -748,7 +748,7 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9A0923-4D34-4F6F-B794-277FDAA80C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA92FE-CB9E-4A6F-8637-C97188A1080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
   <sheets>
     <sheet name="MANHEAT_LO" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
@@ -748,7 +748,7 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
       <c r="H7" t="s">

--- a/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
+++ b/SuppXLS/Scen_UC_MANHEAT_MinProd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BA92FE-CB9E-4A6F-8637-C97188A1080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF8F9A6-7690-456C-A331-B4C48EF7D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
